--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slamf7-Slamf7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slamf7-Slamf7.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1592146666666666</v>
+        <v>0.2288423333333333</v>
       </c>
       <c r="H2">
-        <v>0.477644</v>
+        <v>0.686527</v>
       </c>
       <c r="I2">
-        <v>0.00115881571791628</v>
+        <v>0.001039481910007428</v>
       </c>
       <c r="J2">
-        <v>0.00115881571791628</v>
+        <v>0.001039481910007428</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1592146666666666</v>
+        <v>0.2288423333333333</v>
       </c>
       <c r="N2">
-        <v>0.477644</v>
+        <v>0.686527</v>
       </c>
       <c r="O2">
-        <v>0.00115881571791628</v>
+        <v>0.001039481910007428</v>
       </c>
       <c r="P2">
-        <v>0.00115881571791628</v>
+        <v>0.001039481910007428</v>
       </c>
       <c r="Q2">
-        <v>0.02534931008177777</v>
+        <v>0.05236881352544445</v>
       </c>
       <c r="R2">
-        <v>0.228143790736</v>
+        <v>0.471319321729</v>
       </c>
       <c r="S2">
-        <v>1.342853868089824E-06</v>
+        <v>1.08052264123269E-06</v>
       </c>
       <c r="T2">
-        <v>1.342853868089824E-06</v>
+        <v>1.08052264123269E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1592146666666666</v>
+        <v>0.2288423333333333</v>
       </c>
       <c r="H3">
-        <v>0.477644</v>
+        <v>0.686527</v>
       </c>
       <c r="I3">
-        <v>0.00115881571791628</v>
+        <v>0.001039481910007428</v>
       </c>
       <c r="J3">
-        <v>0.00115881571791628</v>
+        <v>0.001039481910007428</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>63.61667633333334</v>
+        <v>132.0967866666666</v>
       </c>
       <c r="N3">
-        <v>190.850029</v>
+        <v>396.29036</v>
       </c>
       <c r="O3">
-        <v>0.4630226975948152</v>
+        <v>0.6000298026593724</v>
       </c>
       <c r="P3">
-        <v>0.4630226975948152</v>
+        <v>0.6000298026593726</v>
       </c>
       <c r="Q3">
-        <v>10.12870791685289</v>
+        <v>30.22933688663555</v>
       </c>
       <c r="R3">
-        <v>91.158371251676</v>
+        <v>272.06403197972</v>
       </c>
       <c r="S3">
-        <v>0.0005365579797248685</v>
+        <v>0.0006237201253297443</v>
       </c>
       <c r="T3">
-        <v>0.0005365579797248684</v>
+        <v>0.0006237201253297444</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1592146666666666</v>
+        <v>0.2288423333333333</v>
       </c>
       <c r="H4">
-        <v>0.477644</v>
+        <v>0.686527</v>
       </c>
       <c r="I4">
-        <v>0.00115881571791628</v>
+        <v>0.001039481910007428</v>
       </c>
       <c r="J4">
-        <v>0.00115881571791628</v>
+        <v>0.001039481910007428</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.211229</v>
       </c>
       <c r="O4">
-        <v>0.0005124642731401168</v>
+        <v>0.0003198253300583355</v>
       </c>
       <c r="P4">
-        <v>0.0005124642731401168</v>
+        <v>0.0003198253300583356</v>
       </c>
       <c r="Q4">
-        <v>0.01121025160844444</v>
+        <v>0.01611271240922222</v>
       </c>
       <c r="R4">
-        <v>0.100892264476</v>
+        <v>0.145014411683</v>
       </c>
       <c r="S4">
-        <v>5.938516545853091E-07</v>
+        <v>3.324526449577945E-07</v>
       </c>
       <c r="T4">
-        <v>5.938516545853091E-07</v>
+        <v>3.324526449577946E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1592146666666666</v>
+        <v>0.2288423333333333</v>
       </c>
       <c r="H5">
-        <v>0.477644</v>
+        <v>0.686527</v>
       </c>
       <c r="I5">
-        <v>0.00115881571791628</v>
+        <v>0.001039481910007428</v>
       </c>
       <c r="J5">
-        <v>0.00115881571791628</v>
+        <v>0.001039481910007428</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.54799266666667</v>
+        <v>87.75433733333334</v>
       </c>
       <c r="N5">
-        <v>220.643978</v>
+        <v>263.263012</v>
       </c>
       <c r="O5">
-        <v>0.5353060224141284</v>
+        <v>0.3986108901005617</v>
       </c>
       <c r="P5">
-        <v>0.5353060224141284</v>
+        <v>0.3986108901005617</v>
       </c>
       <c r="Q5">
-        <v>11.70991913642578</v>
+        <v>20.08190731548045</v>
       </c>
       <c r="R5">
-        <v>105.389272227832</v>
+        <v>180.737165839324</v>
       </c>
       <c r="S5">
-        <v>0.0006203210326687365</v>
+        <v>0.0004143488093914927</v>
       </c>
       <c r="T5">
-        <v>0.0006203210326687365</v>
+        <v>0.0004143488093914927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.61667633333334</v>
+        <v>132.0967866666666</v>
       </c>
       <c r="H6">
-        <v>190.850029</v>
+        <v>396.29036</v>
       </c>
       <c r="I6">
-        <v>0.4630226975948152</v>
+        <v>0.6000298026593724</v>
       </c>
       <c r="J6">
-        <v>0.4630226975948152</v>
+        <v>0.6000298026593726</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1592146666666666</v>
+        <v>0.2288423333333333</v>
       </c>
       <c r="N6">
-        <v>0.477644</v>
+        <v>0.686527</v>
       </c>
       <c r="O6">
-        <v>0.00115881571791628</v>
+        <v>0.001039481910007428</v>
       </c>
       <c r="P6">
-        <v>0.00115881571791628</v>
+        <v>0.001039481910007428</v>
       </c>
       <c r="Q6">
-        <v>10.12870791685289</v>
+        <v>30.22933688663555</v>
       </c>
       <c r="R6">
-        <v>91.158371251676</v>
+        <v>272.06403197972</v>
       </c>
       <c r="S6">
-        <v>0.0005365579797248685</v>
+        <v>0.0006237201253297443</v>
       </c>
       <c r="T6">
-        <v>0.0005365579797248684</v>
+        <v>0.0006237201253297444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.61667633333334</v>
+        <v>132.0967866666666</v>
       </c>
       <c r="H7">
-        <v>190.850029</v>
+        <v>396.29036</v>
       </c>
       <c r="I7">
-        <v>0.4630226975948152</v>
+        <v>0.6000298026593724</v>
       </c>
       <c r="J7">
-        <v>0.4630226975948152</v>
+        <v>0.6000298026593726</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.61667633333334</v>
+        <v>132.0967866666666</v>
       </c>
       <c r="N7">
-        <v>190.850029</v>
+        <v>396.29036</v>
       </c>
       <c r="O7">
-        <v>0.4630226975948152</v>
+        <v>0.6000298026593724</v>
       </c>
       <c r="P7">
-        <v>0.4630226975948152</v>
+        <v>0.6000298026593726</v>
       </c>
       <c r="Q7">
-        <v>4047.081507700094</v>
+        <v>17449.56104765884</v>
       </c>
       <c r="R7">
-        <v>36423.73356930084</v>
+        <v>157046.0494289296</v>
       </c>
       <c r="S7">
-        <v>0.2143900184879797</v>
+        <v>0.3600357640794454</v>
       </c>
       <c r="T7">
-        <v>0.2143900184879797</v>
+        <v>0.3600357640794456</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>63.61667633333334</v>
+        <v>132.0967866666666</v>
       </c>
       <c r="H8">
-        <v>190.850029</v>
+        <v>396.29036</v>
       </c>
       <c r="I8">
-        <v>0.4630226975948152</v>
+        <v>0.6000298026593724</v>
       </c>
       <c r="J8">
-        <v>0.4630226975948152</v>
+        <v>0.6000298026593726</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,22 +930,22 @@
         <v>0.211229</v>
       </c>
       <c r="O8">
-        <v>0.0005124642731401168</v>
+        <v>0.0003198253300583355</v>
       </c>
       <c r="P8">
-        <v>0.0005124642731401168</v>
+        <v>0.0003198253300583356</v>
       </c>
       <c r="Q8">
-        <v>4.479228975071222</v>
+        <v>9.300890716937776</v>
       </c>
       <c r="R8">
-        <v>40.313060775641</v>
+        <v>83.70801645243999</v>
       </c>
       <c r="S8">
-        <v>0.0002372825901703031</v>
+        <v>0.0001919047296803717</v>
       </c>
       <c r="T8">
-        <v>0.000237282590170303</v>
+        <v>0.0001919047296803718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>63.61667633333334</v>
+        <v>132.0967866666666</v>
       </c>
       <c r="H9">
-        <v>190.850029</v>
+        <v>396.29036</v>
       </c>
       <c r="I9">
-        <v>0.4630226975948152</v>
+        <v>0.6000298026593724</v>
       </c>
       <c r="J9">
-        <v>0.4630226975948152</v>
+        <v>0.6000298026593726</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>73.54799266666667</v>
+        <v>87.75433733333334</v>
       </c>
       <c r="N9">
-        <v>220.643978</v>
+        <v>263.263012</v>
       </c>
       <c r="O9">
-        <v>0.5353060224141284</v>
+        <v>0.3986108901005617</v>
       </c>
       <c r="P9">
-        <v>0.5353060224141284</v>
+        <v>0.3986108901005617</v>
       </c>
       <c r="Q9">
-        <v>4678.878844441708</v>
+        <v>11592.06597779603</v>
       </c>
       <c r="R9">
-        <v>42109.90959997536</v>
+        <v>104328.5938001643</v>
       </c>
       <c r="S9">
-        <v>0.2478588385369404</v>
+        <v>0.2391784137249169</v>
       </c>
       <c r="T9">
-        <v>0.2478588385369403</v>
+        <v>0.2391784137249169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.211229</v>
       </c>
       <c r="I10">
-        <v>0.0005124642731401168</v>
+        <v>0.0003198253300583355</v>
       </c>
       <c r="J10">
-        <v>0.0005124642731401168</v>
+        <v>0.0003198253300583356</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1048,28 +1048,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1592146666666666</v>
+        <v>0.2288423333333333</v>
       </c>
       <c r="N10">
-        <v>0.477644</v>
+        <v>0.686527</v>
       </c>
       <c r="O10">
-        <v>0.00115881571791628</v>
+        <v>0.001039481910007428</v>
       </c>
       <c r="P10">
-        <v>0.00115881571791628</v>
+        <v>0.001039481910007428</v>
       </c>
       <c r="Q10">
-        <v>0.01121025160844444</v>
+        <v>0.01611271240922222</v>
       </c>
       <c r="R10">
-        <v>0.100892264476</v>
+        <v>0.145014411683</v>
       </c>
       <c r="S10">
-        <v>5.938516545853091E-07</v>
+        <v>3.324526449577945E-07</v>
       </c>
       <c r="T10">
-        <v>5.938516545853091E-07</v>
+        <v>3.324526449577946E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,10 +1098,10 @@
         <v>0.211229</v>
       </c>
       <c r="I11">
-        <v>0.0005124642731401168</v>
+        <v>0.0003198253300583355</v>
       </c>
       <c r="J11">
-        <v>0.0005124642731401168</v>
+        <v>0.0003198253300583356</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1110,28 +1110,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.61667633333334</v>
+        <v>132.0967866666666</v>
       </c>
       <c r="N11">
-        <v>190.850029</v>
+        <v>396.29036</v>
       </c>
       <c r="O11">
-        <v>0.4630226975948152</v>
+        <v>0.6000298026593724</v>
       </c>
       <c r="P11">
-        <v>0.4630226975948152</v>
+        <v>0.6000298026593726</v>
       </c>
       <c r="Q11">
-        <v>4.479228975071222</v>
+        <v>9.300890716937776</v>
       </c>
       <c r="R11">
-        <v>40.313060775641</v>
+        <v>83.70801645243999</v>
       </c>
       <c r="S11">
-        <v>0.0002372825901703031</v>
+        <v>0.0001919047296803717</v>
       </c>
       <c r="T11">
-        <v>0.000237282590170303</v>
+        <v>0.0001919047296803718</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,10 +1160,10 @@
         <v>0.211229</v>
       </c>
       <c r="I12">
-        <v>0.0005124642731401168</v>
+        <v>0.0003198253300583355</v>
       </c>
       <c r="J12">
-        <v>0.0005124642731401168</v>
+        <v>0.0003198253300583356</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,10 +1178,10 @@
         <v>0.211229</v>
       </c>
       <c r="O12">
-        <v>0.0005124642731401168</v>
+        <v>0.0003198253300583355</v>
       </c>
       <c r="P12">
-        <v>0.0005124642731401168</v>
+        <v>0.0003198253300583356</v>
       </c>
       <c r="Q12">
         <v>0.00495752116011111</v>
@@ -1190,10 +1190,10 @@
         <v>0.044617690441</v>
       </c>
       <c r="S12">
-        <v>2.626196312450282E-07</v>
+        <v>1.022882417469232E-07</v>
       </c>
       <c r="T12">
-        <v>2.626196312450282E-07</v>
+        <v>1.022882417469233E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,10 +1222,10 @@
         <v>0.211229</v>
       </c>
       <c r="I13">
-        <v>0.0005124642731401168</v>
+        <v>0.0003198253300583355</v>
       </c>
       <c r="J13">
-        <v>0.0005124642731401168</v>
+        <v>0.0003198253300583356</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1234,28 +1234,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>73.54799266666667</v>
+        <v>87.75433733333334</v>
       </c>
       <c r="N13">
-        <v>220.643978</v>
+        <v>263.263012</v>
       </c>
       <c r="O13">
-        <v>0.5353060224141284</v>
+        <v>0.3986108901005617</v>
       </c>
       <c r="P13">
-        <v>0.5353060224141284</v>
+        <v>0.3986108901005617</v>
       </c>
       <c r="Q13">
-        <v>5.178489647662444</v>
+        <v>6.178753640194222</v>
       </c>
       <c r="R13">
-        <v>46.606406828962</v>
+        <v>55.608782761748</v>
       </c>
       <c r="S13">
-        <v>0.0002743252116839833</v>
+        <v>0.0001274858594912591</v>
       </c>
       <c r="T13">
-        <v>0.0002743252116839833</v>
+        <v>0.0001274858594912591</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>73.54799266666667</v>
+        <v>87.75433733333334</v>
       </c>
       <c r="H14">
-        <v>220.643978</v>
+        <v>263.263012</v>
       </c>
       <c r="I14">
-        <v>0.5353060224141284</v>
+        <v>0.3986108901005617</v>
       </c>
       <c r="J14">
-        <v>0.5353060224141284</v>
+        <v>0.3986108901005617</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1296,28 +1296,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1592146666666666</v>
+        <v>0.2288423333333333</v>
       </c>
       <c r="N14">
-        <v>0.477644</v>
+        <v>0.686527</v>
       </c>
       <c r="O14">
-        <v>0.00115881571791628</v>
+        <v>0.001039481910007428</v>
       </c>
       <c r="P14">
-        <v>0.00115881571791628</v>
+        <v>0.001039481910007428</v>
       </c>
       <c r="Q14">
-        <v>11.70991913642578</v>
+        <v>20.08190731548045</v>
       </c>
       <c r="R14">
-        <v>105.389272227832</v>
+        <v>180.737165839324</v>
       </c>
       <c r="S14">
-        <v>0.0006203210326687365</v>
+        <v>0.0004143488093914927</v>
       </c>
       <c r="T14">
-        <v>0.0006203210326687365</v>
+        <v>0.0004143488093914927</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,16 +1340,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>73.54799266666667</v>
+        <v>87.75433733333334</v>
       </c>
       <c r="H15">
-        <v>220.643978</v>
+        <v>263.263012</v>
       </c>
       <c r="I15">
-        <v>0.5353060224141284</v>
+        <v>0.3986108901005617</v>
       </c>
       <c r="J15">
-        <v>0.5353060224141284</v>
+        <v>0.3986108901005617</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1358,28 +1358,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>63.61667633333334</v>
+        <v>132.0967866666666</v>
       </c>
       <c r="N15">
-        <v>190.850029</v>
+        <v>396.29036</v>
       </c>
       <c r="O15">
-        <v>0.4630226975948152</v>
+        <v>0.6000298026593724</v>
       </c>
       <c r="P15">
-        <v>0.4630226975948152</v>
+        <v>0.6000298026593726</v>
       </c>
       <c r="Q15">
-        <v>4678.878844441708</v>
+        <v>11592.06597779603</v>
       </c>
       <c r="R15">
-        <v>42109.90959997536</v>
+        <v>104328.5938001643</v>
       </c>
       <c r="S15">
-        <v>0.2478588385369404</v>
+        <v>0.2391784137249169</v>
       </c>
       <c r="T15">
-        <v>0.2478588385369403</v>
+        <v>0.2391784137249169</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>73.54799266666667</v>
+        <v>87.75433733333334</v>
       </c>
       <c r="H16">
-        <v>220.643978</v>
+        <v>263.263012</v>
       </c>
       <c r="I16">
-        <v>0.5353060224141284</v>
+        <v>0.3986108901005617</v>
       </c>
       <c r="J16">
-        <v>0.5353060224141284</v>
+        <v>0.3986108901005617</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,22 +1426,22 @@
         <v>0.211229</v>
       </c>
       <c r="O16">
-        <v>0.0005124642731401168</v>
+        <v>0.0003198253300583355</v>
       </c>
       <c r="P16">
-        <v>0.0005124642731401168</v>
+        <v>0.0003198253300583356</v>
       </c>
       <c r="Q16">
-        <v>5.178489647662444</v>
+        <v>6.178753640194222</v>
       </c>
       <c r="R16">
-        <v>46.606406828962</v>
+        <v>55.608782761748</v>
       </c>
       <c r="S16">
-        <v>0.0002743252116839833</v>
+        <v>0.0001274858594912591</v>
       </c>
       <c r="T16">
-        <v>0.0002743252116839833</v>
+        <v>0.0001274858594912591</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,16 +1464,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>73.54799266666667</v>
+        <v>87.75433733333334</v>
       </c>
       <c r="H17">
-        <v>220.643978</v>
+        <v>263.263012</v>
       </c>
       <c r="I17">
-        <v>0.5353060224141284</v>
+        <v>0.3986108901005617</v>
       </c>
       <c r="J17">
-        <v>0.5353060224141284</v>
+        <v>0.3986108901005617</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1482,28 +1482,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>73.54799266666667</v>
+        <v>87.75433733333334</v>
       </c>
       <c r="N17">
-        <v>220.643978</v>
+        <v>263.263012</v>
       </c>
       <c r="O17">
-        <v>0.5353060224141284</v>
+        <v>0.3986108901005617</v>
       </c>
       <c r="P17">
-        <v>0.5353060224141284</v>
+        <v>0.3986108901005617</v>
       </c>
       <c r="Q17">
-        <v>5409.307225296055</v>
+        <v>7700.823720812461</v>
       </c>
       <c r="R17">
-        <v>48683.76502766449</v>
+        <v>69307.41348731215</v>
       </c>
       <c r="S17">
-        <v>0.2865525376328353</v>
+        <v>0.1588906417067621</v>
       </c>
       <c r="T17">
-        <v>0.2865525376328353</v>
+        <v>0.1588906417067621</v>
       </c>
     </row>
   </sheetData>
